--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3858.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3858.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.692347030519149</v>
+        <v>3.809971570968628</v>
       </c>
       <c r="B1">
-        <v>3.536700846213346</v>
+        <v>6.129008769989014</v>
       </c>
       <c r="C1">
-        <v>3.994098312302159</v>
+        <v>5.186582088470459</v>
       </c>
       <c r="D1">
-        <v>2.221855701350696</v>
+        <v>6.031337738037109</v>
       </c>
       <c r="E1">
-        <v>0.9175060904471882</v>
+        <v>3.940948724746704</v>
       </c>
     </row>
   </sheetData>
